--- a/arknights - 完成.xlsx
+++ b/arknights - 完成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitast-my.sharepoint.com/personal/omzh220247_st_oita-ed_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0B7D93-A598-40EC-A43A-9AAA267816AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4328A694-341C-4296-AF7B-FEED9E14BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="1799">
   <si>
     <t>名前</t>
   </si>
@@ -8311,6 +8311,267 @@
   <si>
     <t>飽和射撃:攻撃範囲+1、攻撃間隔が延長し、攻撃力+270%、防御力+65%、機動防盾の防御力+135%
 スキル発動中、機動防盾の方向に砲弾を放ち（機動防盾の配置一回につき一発のみ）、敵に命中するか着弾点に到達すると爆発し、範囲内にいるすべての敵に攻撃力の250%の物理ダメージを与え、5秒間スタンさせる。合計20発の弾薬を撃ち切るとスキルが終了(手動でスキルを停止可能)</t>
+  </si>
+  <si>
+    <t>小自在</t>
+  </si>
+  <si>
+    <t>召喚ユニット</t>
+  </si>
+  <si>
+    <t>近距離術攻撃、味方の回復対象にならない。配置後25秒で自動撤退する。手動撤退可能。シーが撤退すると全ての「小自在」も撤退する</t>
+  </si>
+  <si>
+    <t>HP:1997 攻撃:398 防御:302 術耐性:50</t>
+  </si>
+  <si>
+    <t>HP:2397 攻撃:423 防御:327 術耐性:50</t>
+  </si>
+  <si>
+    <t>狼の群れ</t>
+  </si>
+  <si>
+    <t>ヴィジェルの攻撃範囲内にのみ配置可能。味方ユニットの回復対象にならない。配置後、ブロック数1の戦闘可能な援軍に変化する、致命的なダメージを受けた時、「狼の隻影」を1体消費してHPを回復する。「狼の隻影」1体につきブロック数+1、攻撃回数+1回(初期2体/上限3体）。
+25秒ごとに「狼の隻影」が1体増える。「狼の隻影」が無い状態で撃破されても撤退せず、攻撃しない退避状態になり25秒かけてHPを完全回復し、再度戦闘可能な援軍に変化する</t>
+  </si>
+  <si>
+    <t>HP:1100 攻撃:371 防御:317 術耐性:20</t>
+  </si>
+  <si>
+    <t>うつろう水影</t>
+  </si>
+  <si>
+    <t>ミュルジスの攻撃範囲内にのみ配置可能。味方ユニットの回復対象にならない。配置後、ブロック数1の戦闘可能な援軍に変化する。コピー無しの場合は術ダメージを与える。撃破されても撤退せず、攻撃しない退避状態になり25秒かけてHPを完全回復し、再度戦闘可能な援軍に変化する(コピー内容は維持される)</t>
+  </si>
+  <si>
+    <t>スキルの持続時間中、コピー待機状態になる。コピー対象のHP/攻撃力/防御力/術耐性の90%、ブロック数/攻撃間隔/攻撃範囲/ダメージタイプをそのままコピー ※手動でスキルを停止可能
+近距離:攻撃毎に敵の攻撃力と防御力を10奪取(最大250) ※再コピー時にリセット
+遠距離:10回攻撃毎に周囲4マス内の1箇所に25秒間持続する自身と同じステータスの複製を配置</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:302 防御:257 術耐性:0</t>
+  </si>
+  <si>
+    <t>眠獣</t>
+  </si>
+  <si>
+    <t>ブラックナイトの攻撃範囲内にのみ配置可能。味方ユニットの回復対象にならない。配置後、ブロック数1の戦闘可能な援軍に変化する。睡眠状態の敵を攻撃でき、優先して攻撃する</t>
+  </si>
+  <si>
+    <t>HP:2582 攻撃:474 防御:308 術耐性:20</t>
+  </si>
+  <si>
+    <t>ハガネガニ守備隊</t>
+  </si>
+  <si>
+    <t>ビーンストークの攻撃範囲内にのみ配置可能。味方ユニットの回復対象にならない。配置後、ブロック数1の戦闘可能な援軍に変化する。撃破されても撤退せず、攻撃しない退避状態になり15秒かけてHPを完全回復し、再度戦闘可能な援軍に変化する</t>
+  </si>
+  <si>
+    <t>HP:1895 攻撃:404 防御:408 術耐性:0</t>
+  </si>
+  <si>
+    <t>DDF・F</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない、攻撃範囲内の敵を足止めする</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:0 防御:200 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:2100 攻撃:0 防御:250 術耐性:0</t>
+  </si>
+  <si>
+    <t>DDF・L</t>
+  </si>
+  <si>
+    <t>術攻撃(対空可)、味方ユニットの回復対象にならない</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:509 防御:200 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:549 防御:200 術耐性:0</t>
+  </si>
+  <si>
+    <t>DDF・A</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない、敵に範囲物理ダメージを与える(範囲0.75)</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:753 防御:200 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:2000 攻撃:803 防御:200 術耐性:0</t>
+  </si>
+  <si>
+    <t>清平</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない</t>
+  </si>
+  <si>
+    <t>HP:2500 攻撃:549 防御:351 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:2650 攻撃:594 防御:351 術耐性:0</t>
+  </si>
+  <si>
+    <t>逍遥</t>
+  </si>
+  <si>
+    <t>遠距離術攻撃、味方ユニットの回復対象にならない</t>
+  </si>
+  <si>
+    <t>HP:1217 攻撃:406 防御:124 術耐性:20</t>
+  </si>
+  <si>
+    <t>HP:1317 攻撃:441 防御:124 術耐性:20</t>
+  </si>
+  <si>
+    <t>弦驚</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない、ブロック中の敵全員を同時に攻撃。攻撃範囲内に別の「弦驚」が居る場合、対象に合体しHPを最大値まで回復、向い合わせに置いた場合、先に配置されている方が合体先になる</t>
+  </si>
+  <si>
+    <t>合体後:最大HP+100%、攻撃力+80%、防御力+80%、術耐性+100%、攻撃間隔+0.8s、ブロック数+2、攻撃が術攻撃に変化、配置数消費+1(配置中は1体で2消費し、撤退時に配置数を2返還)。SDが上位形態へと変化し、別の「弦驚」への合体特性が無効化</t>
+  </si>
+  <si>
+    <t>HP:3607 攻撃:823 防御:423 術耐性:10</t>
+  </si>
+  <si>
+    <t>HP:3857 攻撃:883 防御:423 術耐性:10</t>
+  </si>
+  <si>
+    <t>レンズ</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない、範囲内の敵のステルス状態を無効にする</t>
+  </si>
+  <si>
+    <t>HP:2020 攻撃:477 防御:377 術耐性:0</t>
+  </si>
+  <si>
+    <t>ミーボ</t>
+  </si>
+  <si>
+    <t>味方ユニットの回復対象にならない、ブロック中の敵の攻撃速度を低下させる</t>
+  </si>
+  <si>
+    <t>HP:1950 攻撃:444 防御:415 術耐性:0</t>
+  </si>
+  <si>
+    <t>アシさん</t>
+  </si>
+  <si>
+    <t>HP:2016 攻撃:462 防御:355 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:2318 攻撃:462 防御:355 術耐性:0</t>
+  </si>
+  <si>
+    <t>鉄鉗号・プロトタイプ</t>
+  </si>
+  <si>
+    <t>味方の攻撃対象となるが、攻撃によるダメージを受けない、味方【工匠】の攻撃を受けた場合、自身のHPが最大値の1%回復</t>
+  </si>
+  <si>
+    <t>団結の力:自身の後ろ1マスに配置されている味方が受ける物理ダメージ-20%、退場まで効果継続</t>
+  </si>
+  <si>
+    <t>HP:6000 攻撃:100 防御:2000 術耐性:0</t>
+  </si>
+  <si>
+    <t>スキル発動時、自身のHPが2.5%減少し、前方の敵1体にステインレスの攻撃力の260%の物理ダメージを与え、対象の周囲一定範囲内の敵全員にステインレスの攻撃力の120%の物理ダメージを与える</t>
+  </si>
+  <si>
+    <t>スカジのシーボーン</t>
+  </si>
+  <si>
+    <t>敵からの攻撃を受けない、攻撃しない。攻撃範囲内を濁心スカジの攻撃範囲と見なす。配置から25秒経過で強制退場</t>
+  </si>
+  <si>
+    <t>機動防盾</t>
+  </si>
+  <si>
+    <t>攻撃しない、敵に狙われやすい、味方ユニットからの回復を受けない、維持時間終了で強制撤退。撤退時に「機動防盾」を1個獲得（配置から50秒後強制退場）</t>
+  </si>
+  <si>
+    <t>HP:3802 攻撃:0 防御:755 術耐性:0</t>
+  </si>
+  <si>
+    <t>蓄水砲</t>
+  </si>
+  <si>
+    <t>敵からの攻撃を受けない、攻撃対象を相当の力で突き飛ばす。配置後20秒経過で強制退場、手動撤退可能</t>
+  </si>
+  <si>
+    <t>攻撃:585</t>
+  </si>
+  <si>
+    <t>鏡映虚影</t>
+  </si>
+  <si>
+    <t>味方の回復対象にならない、ファントムと同じスキルを所持。再配置時間は配置時から計測開始、ファントム退場時に撤退</t>
+  </si>
+  <si>
+    <t>HP:1416 攻撃:548 防御:268 術耐性:0</t>
+  </si>
+  <si>
+    <t>HP:1516 攻撃:608 防御:308 術耐性:0</t>
+  </si>
+  <si>
+    <t>Mon3tr</t>
+  </si>
+  <si>
+    <t>ケルシー以外の味方ユニットの回復対象にならない、ケルシーの攻撃範囲外にいる時、防御力が0になる</t>
+  </si>
+  <si>
+    <t>HP:5433 攻撃:1402 防御:405 術耐性:0</t>
+  </si>
+  <si>
+    <t>幻影</t>
+  </si>
+  <si>
+    <t>30%で物理回避、敵に狙われやすい。毎秒HPが最大値の3%減少、回復対象にならない、ナイチンゲールを配置する度に所持数+2(所持上限3)</t>
+  </si>
+  <si>
+    <t>HP:6000 攻撃:0 防御:0 術耐性:75</t>
+  </si>
+  <si>
+    <t>医療ドローン</t>
+  </si>
+  <si>
+    <t>敵からの攻撃を受けない、攻撃範囲内の味方全員を同時に回復、配置後10秒経過で強制退場、手動撤退可能</t>
+  </si>
+  <si>
+    <t>攻撃:125</t>
+  </si>
+  <si>
+    <t>呪いの人形</t>
+  </si>
+  <si>
+    <t>周囲の敵全員の攻撃力と防御力-30%</t>
+  </si>
+  <si>
+    <t>砂の碑(オベリスク)</t>
+  </si>
+  <si>
+    <t>出現時、周囲にいる敵全員に攻撃力の230%の術ダメージを与え、1.5秒間スタンさせる</t>
+  </si>
+  <si>
+    <t>HP:5000 攻撃:100 防御:560 術耐性:10</t>
+  </si>
+  <si>
+    <t>戦術装備</t>
+  </si>
+  <si>
+    <t>出現時、周囲にいる敵全員を2.5秒間スタンさせる、戦術装備にブロックされている敵の防御力-160</t>
+  </si>
+  <si>
+    <t>HP:5000 防御:520 術耐性:0</t>
   </si>
 </sst>
 </file>
@@ -8421,13 +8682,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -8763,10 +9025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y313"/>
+  <dimension ref="A1:Y338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="D314" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I338" sqref="I338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -22549,6 +22811,1106 @@
         <v>31</v>
       </c>
       <c r="N313" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B314" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" t="s">
+        <v>31</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E314" t="s">
+        <v>31</v>
+      </c>
+      <c r="F314" t="s">
+        <v>31</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H314" t="s">
+        <v>31</v>
+      </c>
+      <c r="I314" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J314" t="s">
+        <v>31</v>
+      </c>
+      <c r="K314" t="s">
+        <v>31</v>
+      </c>
+      <c r="L314" t="s">
+        <v>31</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1717</v>
+      </c>
+      <c r="N314" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75">
+      <c r="A315" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" t="s">
+        <v>31</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E315" t="s">
+        <v>31</v>
+      </c>
+      <c r="F315" t="s">
+        <v>31</v>
+      </c>
+      <c r="G315" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H315" t="s">
+        <v>31</v>
+      </c>
+      <c r="I315" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J315" t="s">
+        <v>31</v>
+      </c>
+      <c r="K315" t="s">
+        <v>31</v>
+      </c>
+      <c r="L315" t="s">
+        <v>31</v>
+      </c>
+      <c r="M315" t="s">
+        <v>31</v>
+      </c>
+      <c r="N315" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75">
+      <c r="A316" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" t="s">
+        <v>31</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E316" t="s">
+        <v>31</v>
+      </c>
+      <c r="F316" t="s">
+        <v>31</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H316" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J316" t="s">
+        <v>31</v>
+      </c>
+      <c r="K316" t="s">
+        <v>31</v>
+      </c>
+      <c r="L316" t="s">
+        <v>31</v>
+      </c>
+      <c r="M316" t="s">
+        <v>31</v>
+      </c>
+      <c r="N316" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="A317" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" t="s">
+        <v>31</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E317" t="s">
+        <v>31</v>
+      </c>
+      <c r="F317" t="s">
+        <v>31</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H317" t="s">
+        <v>31</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J317" t="s">
+        <v>31</v>
+      </c>
+      <c r="K317" t="s">
+        <v>31</v>
+      </c>
+      <c r="L317" t="s">
+        <v>31</v>
+      </c>
+      <c r="M317" t="s">
+        <v>31</v>
+      </c>
+      <c r="N317" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B318" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" t="s">
+        <v>31</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E318" t="s">
+        <v>31</v>
+      </c>
+      <c r="F318" t="s">
+        <v>31</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H318" t="s">
+        <v>31</v>
+      </c>
+      <c r="I318" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J318" t="s">
+        <v>31</v>
+      </c>
+      <c r="K318" t="s">
+        <v>31</v>
+      </c>
+      <c r="L318" t="s">
+        <v>31</v>
+      </c>
+      <c r="M318" t="s">
+        <v>31</v>
+      </c>
+      <c r="N318" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B319" t="s">
+        <v>31</v>
+      </c>
+      <c r="C319" t="s">
+        <v>31</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E319" t="s">
+        <v>31</v>
+      </c>
+      <c r="F319" t="s">
+        <v>31</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H319" t="s">
+        <v>31</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J319" t="s">
+        <v>31</v>
+      </c>
+      <c r="K319" t="s">
+        <v>31</v>
+      </c>
+      <c r="L319" t="s">
+        <v>31</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1734</v>
+      </c>
+      <c r="N319" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
+      <c r="A320" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B320" t="s">
+        <v>31</v>
+      </c>
+      <c r="C320" t="s">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E320" t="s">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>31</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H320" t="s">
+        <v>31</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J320" t="s">
+        <v>31</v>
+      </c>
+      <c r="K320" t="s">
+        <v>31</v>
+      </c>
+      <c r="L320" t="s">
+        <v>31</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1738</v>
+      </c>
+      <c r="N320" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
+      <c r="A321" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B321" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321" t="s">
+        <v>31</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E321" t="s">
+        <v>31</v>
+      </c>
+      <c r="F321" t="s">
+        <v>31</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H321" t="s">
+        <v>31</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J321" t="s">
+        <v>31</v>
+      </c>
+      <c r="K321" t="s">
+        <v>31</v>
+      </c>
+      <c r="L321" t="s">
+        <v>31</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1742</v>
+      </c>
+      <c r="N321" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
+      <c r="A322" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322" t="s">
+        <v>31</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E322" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" t="s">
+        <v>31</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H322" t="s">
+        <v>31</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J322" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322" t="s">
+        <v>31</v>
+      </c>
+      <c r="L322" t="s">
+        <v>31</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N322" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
+      <c r="A323" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B323" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323" t="s">
+        <v>31</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E323" t="s">
+        <v>31</v>
+      </c>
+      <c r="F323" t="s">
+        <v>31</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H323" t="s">
+        <v>31</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J323" t="s">
+        <v>31</v>
+      </c>
+      <c r="K323" t="s">
+        <v>31</v>
+      </c>
+      <c r="L323" t="s">
+        <v>31</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N323" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
+      <c r="A324" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B324" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" t="s">
+        <v>31</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E324" t="s">
+        <v>31</v>
+      </c>
+      <c r="F324" t="s">
+        <v>31</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J324" t="s">
+        <v>31</v>
+      </c>
+      <c r="K324" t="s">
+        <v>31</v>
+      </c>
+      <c r="L324" t="s">
+        <v>31</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N324" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
+      <c r="A325" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B325" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" t="s">
+        <v>31</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E325" t="s">
+        <v>31</v>
+      </c>
+      <c r="F325" t="s">
+        <v>31</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H325" t="s">
+        <v>31</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J325" t="s">
+        <v>31</v>
+      </c>
+      <c r="K325" t="s">
+        <v>31</v>
+      </c>
+      <c r="L325" t="s">
+        <v>31</v>
+      </c>
+      <c r="M325" t="s">
+        <v>31</v>
+      </c>
+      <c r="N325" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
+      <c r="A326" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" t="s">
+        <v>31</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E326" t="s">
+        <v>31</v>
+      </c>
+      <c r="F326" t="s">
+        <v>31</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H326" t="s">
+        <v>31</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J326" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326" t="s">
+        <v>31</v>
+      </c>
+      <c r="L326" t="s">
+        <v>31</v>
+      </c>
+      <c r="M326" t="s">
+        <v>31</v>
+      </c>
+      <c r="N326" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
+      <c r="A327" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B327" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" t="s">
+        <v>31</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E327" t="s">
+        <v>31</v>
+      </c>
+      <c r="F327" t="s">
+        <v>31</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H327" t="s">
+        <v>31</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J327" t="s">
+        <v>31</v>
+      </c>
+      <c r="K327" t="s">
+        <v>31</v>
+      </c>
+      <c r="L327" t="s">
+        <v>31</v>
+      </c>
+      <c r="M327" t="s">
+        <v>1764</v>
+      </c>
+      <c r="N327" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
+      <c r="A328" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B328" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" t="s">
+        <v>31</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E328" t="s">
+        <v>31</v>
+      </c>
+      <c r="F328" t="s">
+        <v>31</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K328" t="s">
+        <v>31</v>
+      </c>
+      <c r="L328" t="s">
+        <v>31</v>
+      </c>
+      <c r="M328" t="s">
+        <v>31</v>
+      </c>
+      <c r="N328" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
+      <c r="A329" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B329" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" t="s">
+        <v>31</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E329" t="s">
+        <v>31</v>
+      </c>
+      <c r="F329" t="s">
+        <v>31</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H329" t="s">
+        <v>31</v>
+      </c>
+      <c r="I329" t="s">
+        <v>31</v>
+      </c>
+      <c r="J329" t="s">
+        <v>31</v>
+      </c>
+      <c r="K329" t="s">
+        <v>31</v>
+      </c>
+      <c r="L329" t="s">
+        <v>31</v>
+      </c>
+      <c r="M329" t="s">
+        <v>31</v>
+      </c>
+      <c r="N329" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
+      <c r="A330" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B330" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" t="s">
+        <v>31</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E330" t="s">
+        <v>31</v>
+      </c>
+      <c r="F330" t="s">
+        <v>31</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H330" t="s">
+        <v>31</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J330" t="s">
+        <v>31</v>
+      </c>
+      <c r="K330" t="s">
+        <v>31</v>
+      </c>
+      <c r="L330" t="s">
+        <v>31</v>
+      </c>
+      <c r="M330" t="s">
+        <v>31</v>
+      </c>
+      <c r="N330" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
+      <c r="A331" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B331" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" t="s">
+        <v>31</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E331" t="s">
+        <v>31</v>
+      </c>
+      <c r="F331" t="s">
+        <v>31</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H331" t="s">
+        <v>31</v>
+      </c>
+      <c r="I331" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K331" t="s">
+        <v>31</v>
+      </c>
+      <c r="L331" t="s">
+        <v>31</v>
+      </c>
+      <c r="M331" t="s">
+        <v>31</v>
+      </c>
+      <c r="N331" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
+      <c r="A332" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" t="s">
+        <v>31</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E332" t="s">
+        <v>31</v>
+      </c>
+      <c r="F332" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H332" t="s">
+        <v>31</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J332" t="s">
+        <v>31</v>
+      </c>
+      <c r="K332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L332" t="s">
+        <v>31</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N332" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
+      <c r="A333" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B333" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" t="s">
+        <v>31</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E333" t="s">
+        <v>31</v>
+      </c>
+      <c r="F333" t="s">
+        <v>31</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H333" t="s">
+        <v>31</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J333" t="s">
+        <v>31</v>
+      </c>
+      <c r="K333" t="s">
+        <v>31</v>
+      </c>
+      <c r="L333" t="s">
+        <v>31</v>
+      </c>
+      <c r="M333" t="s">
+        <v>31</v>
+      </c>
+      <c r="N333" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
+      <c r="A334" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B334" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" t="s">
+        <v>31</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E334" t="s">
+        <v>31</v>
+      </c>
+      <c r="F334" t="s">
+        <v>31</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H334" t="s">
+        <v>31</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J334" t="s">
+        <v>31</v>
+      </c>
+      <c r="K334" t="s">
+        <v>31</v>
+      </c>
+      <c r="L334" t="s">
+        <v>31</v>
+      </c>
+      <c r="M334" t="s">
+        <v>31</v>
+      </c>
+      <c r="N334" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
+      <c r="A335" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B335" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" t="s">
+        <v>31</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E335" t="s">
+        <v>31</v>
+      </c>
+      <c r="F335" t="s">
+        <v>31</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H335" t="s">
+        <v>31</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J335" t="s">
+        <v>31</v>
+      </c>
+      <c r="K335" t="s">
+        <v>31</v>
+      </c>
+      <c r="L335" t="s">
+        <v>31</v>
+      </c>
+      <c r="M335" t="s">
+        <v>31</v>
+      </c>
+      <c r="N335" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
+      <c r="A336" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B336" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" t="s">
+        <v>31</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E336" t="s">
+        <v>31</v>
+      </c>
+      <c r="F336" t="s">
+        <v>31</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H336" t="s">
+        <v>31</v>
+      </c>
+      <c r="I336" t="s">
+        <v>31</v>
+      </c>
+      <c r="J336" t="s">
+        <v>31</v>
+      </c>
+      <c r="K336" t="s">
+        <v>31</v>
+      </c>
+      <c r="L336" t="s">
+        <v>31</v>
+      </c>
+      <c r="M336" t="s">
+        <v>31</v>
+      </c>
+      <c r="N336" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
+      <c r="A337" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B337" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" t="s">
+        <v>31</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E337" t="s">
+        <v>31</v>
+      </c>
+      <c r="F337" t="s">
+        <v>31</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H337" t="s">
+        <v>31</v>
+      </c>
+      <c r="I337" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J337" t="s">
+        <v>31</v>
+      </c>
+      <c r="K337" t="s">
+        <v>31</v>
+      </c>
+      <c r="L337" t="s">
+        <v>31</v>
+      </c>
+      <c r="M337" t="s">
+        <v>31</v>
+      </c>
+      <c r="N337" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
+      <c r="A338" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B338" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" t="s">
+        <v>31</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E338" t="s">
+        <v>31</v>
+      </c>
+      <c r="F338" t="s">
+        <v>31</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H338" t="s">
+        <v>31</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J338" t="s">
+        <v>31</v>
+      </c>
+      <c r="K338" t="s">
+        <v>31</v>
+      </c>
+      <c r="L338" t="s">
+        <v>31</v>
+      </c>
+      <c r="M338" t="s">
+        <v>31</v>
+      </c>
+      <c r="N338" t="s">
         <v>31</v>
       </c>
     </row>

--- a/arknights - 完成.xlsx
+++ b/arknights - 完成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitast-my.sharepoint.com/personal/omzh220247_st_oita-ed_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4328A694-341C-4296-AF7B-FEED9E14BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA45184-9234-4D17-AB78-A9748A2E22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8345,8 +8345,8 @@
   </si>
   <si>
     <t>スキルの持続時間中、コピー待機状態になる。コピー対象のHP/攻撃力/防御力/術耐性の90%、ブロック数/攻撃間隔/攻撃範囲/ダメージタイプをそのままコピー ※手動でスキルを停止可能
-近距離:攻撃毎に敵の攻撃力と防御力を10奪取(最大250) ※再コピー時にリセット
-遠距離:10回攻撃毎に周囲4マス内の1箇所に25秒間持続する自身と同じステータスの複製を配置</t>
+   近距離:攻撃毎に敵の攻撃力と防御力を10奪取(最大250) ※再コピー時にリセット
+   遠距離:10回攻撃毎に周囲4マス内の1箇所に25秒間持続する自身と同じステータスの複製を配置</t>
   </si>
   <si>
     <t>HP:2000 攻撃:302 防御:257 術耐性:0</t>
@@ -9027,8 +9027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D314" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I338" sqref="I338"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
